--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T20:17:19+00:00</t>
+    <t>2022-04-14T15:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T15:41:09+00:00</t>
+    <t>2022-04-14T16:01:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T16:01:14+00:00</t>
+    <t>2022-04-14T16:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T16:18:32+00:00</t>
+    <t>2022-04-14T16:39:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T16:39:25+00:00</t>
+    <t>2022-04-14T17:25:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T17:25:25+00:00</t>
+    <t>2022-04-14T18:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="118">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T18:16:16+00:00</t>
+    <t>2022-04-14T19:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -366,6 +366,13 @@
   </si>
   <si>
     <t>standardVariable</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
   </si>
   <si>
     <t>base64Binary
@@ -674,7 +681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3151,15 +3158,17 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -3174,24 +3183,22 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>73</v>
@@ -3233,27 +3240,27 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3264,7 +3271,7 @@
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>73</v>
@@ -3276,13 +3283,13 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3333,21 +3340,525 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI26" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AJ29" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>106</v>
       </c>
     </row>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:25:29+00:00</t>
+    <t>2022-04-14T19:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:48:55+00:00</t>
+    <t>2022-04-14T20:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:08:42+00:00</t>
+    <t>2022-04-14T20:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:27:58+00:00</t>
+    <t>2022-04-14T20:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:44:08+00:00</t>
+    <t>2022-04-15T12:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T12:45:47+00:00</t>
+    <t>2022-04-15T14:01:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:01:58+00:00</t>
+    <t>2022-04-15T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:27:29+00:00</t>
+    <t>2022-04-15T14:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:45:08+00:00</t>
+    <t>2022-04-15T14:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:52:59+00:00</t>
+    <t>2022-04-15T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:34:51+00:00</t>
+    <t>2022-04-15T15:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:54:30+00:00</t>
+    <t>2022-04-15T17:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:11:07+00:00</t>
+    <t>2022-04-15T17:46:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:46:09+00:00</t>
+    <t>2022-04-15T19:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:11:05+00:00</t>
+    <t>2022-04-15T19:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:26:54+00:00</t>
+    <t>2022-04-18T13:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:39:40+00:00</t>
+    <t>2022-04-18T13:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:50:56+00:00</t>
+    <t>2022-04-18T13:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:55:40+00:00</t>
+    <t>2022-04-18T14:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:09:42+00:00</t>
+    <t>2022-04-18T14:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:34:01+00:00</t>
+    <t>2022-04-18T14:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:36:39+00:00</t>
+    <t>2022-04-18T14:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:49:47+00:00</t>
+    <t>2022-04-18T14:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:59:18+00:00</t>
+    <t>2022-04-19T16:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/settings</t>
+    <t>http://science37.com/fhir/StructureDefinition/settings</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:43:07+00:00</t>
+    <t>2022-04-19T16:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:57:06+00:00</t>
+    <t>2022-04-19T19:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:13:12+00:00</t>
+    <t>2022-04-19T19:15:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:15:24+00:00</t>
+    <t>2022-04-19T19:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:24:07+00:00</t>
+    <t>2022-04-19T19:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:32:38+00:00</t>
+    <t>2022-04-19T20:00:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:00:50+00:00</t>
+    <t>2022-04-19T20:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-settings.xlsx
+++ b/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:15:26+00:00</t>
+    <t>2022-04-21T13:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
